--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -10,7 +10,6 @@
   <sheets>
     <sheet name="Students" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Classes" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="General" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -75,6 +74,9 @@
     <t xml:space="preserve">Kim</t>
   </si>
   <si>
+    <t xml:space="preserve">Clara, Mia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adalyn, Hakeem</t>
   </si>
   <si>
@@ -153,6 +155,9 @@
     <t xml:space="preserve">Ava</t>
   </si>
   <si>
+    <t xml:space="preserve">Zoe, Ella</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liam</t>
   </si>
   <si>
@@ -412,12 +417,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mr Hampshire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min Class Size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max Class Size</t>
   </si>
 </sst>
 </file>
@@ -501,7 +500,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -514,16 +513,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -721,8 +716,8 @@
   </sheetPr>
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I85" activeCellId="0" sqref="I85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -772,7 +767,7 @@
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
@@ -797,8 +792,8 @@
       <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="4" t="n">
         <v>3</v>
       </c>
@@ -816,14 +811,16 @@
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="4" t="n">
         <v>3</v>
       </c>
@@ -839,14 +836,14 @@
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="F5" s="4" t="n">
         <v>5</v>
       </c>
@@ -862,14 +859,14 @@
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="4" t="n">
         <v>1</v>
       </c>
@@ -880,17 +877,17 @@
         <v>4</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="4" t="n">
         <v>2</v>
       </c>
@@ -901,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,10 +906,10 @@
         <v>11</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>3</v>
@@ -924,19 +921,19 @@
         <v>1</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="4" t="n">
         <v>3</v>
       </c>
@@ -956,10 +953,10 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="4" t="n">
         <v>4</v>
       </c>
@@ -975,14 +972,14 @@
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="4" t="n">
         <v>4</v>
       </c>
@@ -998,14 +995,14 @@
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="4" t="n">
         <v>3</v>
       </c>
@@ -1021,14 +1018,14 @@
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="4" t="n">
         <v>3</v>
       </c>
@@ -1044,16 +1041,16 @@
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="4" t="n">
         <v>5</v>
       </c>
@@ -1064,19 +1061,19 @@
         <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="4" t="n">
         <v>3</v>
       </c>
@@ -1087,19 +1084,19 @@
         <v>3</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="4" t="n">
         <v>3</v>
       </c>
@@ -1110,18 +1107,18 @@
         <v>2</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
         <v>16</v>
       </c>
@@ -1140,15 +1137,15 @@
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="D18" s="3"/>
       <c r="E18" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>4</v>
@@ -1165,15 +1162,15 @@
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="D19" s="3"/>
       <c r="E19" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19" s="4" t="n">
         <v>3</v>
@@ -1190,16 +1187,16 @@
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="4" t="n">
         <v>2</v>
       </c>
@@ -1215,14 +1212,16 @@
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="4"/>
+        <v>43</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="4" t="n">
         <v>3</v>
       </c>
@@ -1238,13 +1237,13 @@
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="D22" s="3"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="n">
         <v>4</v>
@@ -1256,20 +1255,20 @@
         <v>2</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F23" s="4" t="n">
         <v>2</v>
@@ -1281,20 +1280,20 @@
         <v>5</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F24" s="4" t="n">
         <v>1</v>
@@ -1306,21 +1305,21 @@
         <v>4</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="E25" s="3"/>
       <c r="F25" s="4" t="n">
         <v>5</v>
       </c>
@@ -1336,15 +1335,15 @@
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="D26" s="3"/>
       <c r="E26" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F26" s="4" t="n">
         <v>3</v>
@@ -1361,16 +1360,16 @@
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="4" t="n">
         <v>4</v>
       </c>
@@ -1386,15 +1385,15 @@
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F28" s="4" t="n">
         <v>3</v>
@@ -1411,16 +1410,16 @@
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="E29" s="3"/>
       <c r="F29" s="4" t="n">
         <v>5</v>
       </c>
@@ -1436,16 +1435,16 @@
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="4" t="n">
         <v>2</v>
       </c>
@@ -1456,20 +1455,20 @@
         <v>5</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="5"/>
+        <v>59</v>
+      </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F31" s="4" t="n">
         <v>1</v>
@@ -1481,21 +1480,21 @@
         <v>2</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="5"/>
+        <v>58</v>
+      </c>
+      <c r="E32" s="3"/>
       <c r="F32" s="4" t="n">
         <v>4</v>
       </c>
@@ -1506,21 +1505,21 @@
         <v>4</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="5"/>
+        <v>19</v>
+      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="4" t="n">
         <v>3</v>
       </c>
@@ -1536,16 +1535,16 @@
     </row>
     <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="E34" s="3"/>
       <c r="F34" s="4" t="n">
         <v>2</v>
       </c>
@@ -1561,16 +1560,16 @@
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="E35" s="3"/>
       <c r="F35" s="4" t="n">
         <v>2</v>
       </c>
@@ -1586,16 +1585,16 @@
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="E36" s="3"/>
       <c r="F36" s="4" t="n">
         <v>5</v>
       </c>
@@ -1611,15 +1610,15 @@
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D37" s="5"/>
+        <v>67</v>
+      </c>
+      <c r="D37" s="3"/>
       <c r="E37" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F37" s="4" t="n">
         <v>3</v>
@@ -1636,15 +1635,15 @@
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="5"/>
+        <v>69</v>
+      </c>
+      <c r="D38" s="3"/>
       <c r="E38" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F38" s="4" t="n">
         <v>4</v>
@@ -1656,19 +1655,19 @@
         <v>4</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="3"/>
       <c r="F39" s="4" t="n">
         <v>2</v>
       </c>
@@ -1679,18 +1678,18 @@
         <v>4</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="5"/>
+        <v>72</v>
+      </c>
+      <c r="D40" s="3"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="n">
         <v>3</v>
@@ -1702,18 +1701,18 @@
         <v>3</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="5"/>
+        <v>73</v>
+      </c>
+      <c r="D41" s="3"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="n">
         <v>4</v>
@@ -1730,14 +1729,14 @@
     </row>
     <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="3"/>
       <c r="F42" s="4" t="n">
         <v>4</v>
       </c>
@@ -1753,13 +1752,13 @@
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="D43" s="3"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4" t="n">
         <v>2</v>
@@ -1776,13 +1775,13 @@
     </row>
     <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="D44" s="3"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4" t="n">
         <v>3</v>
@@ -1799,13 +1798,13 @@
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D45" s="5"/>
+        <v>68</v>
+      </c>
+      <c r="D45" s="3"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4" t="n">
         <v>3</v>
@@ -1822,13 +1821,13 @@
     </row>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="D46" s="3"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4" t="n">
         <v>5</v>
@@ -1840,19 +1839,19 @@
         <v>3</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="4" t="n">
         <v>3</v>
       </c>
@@ -1863,19 +1862,19 @@
         <v>2</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="E48" s="5"/>
+      <c r="E48" s="3"/>
       <c r="F48" s="4" t="n">
         <v>1</v>
       </c>
@@ -1886,19 +1885,19 @@
         <v>5</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D49" s="4"/>
-      <c r="E49" s="5"/>
+      <c r="E49" s="3"/>
       <c r="F49" s="4" t="n">
         <v>5</v>
       </c>
@@ -1914,15 +1913,15 @@
     </row>
     <row r="50" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="D50" s="3"/>
       <c r="E50" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F50" s="4" t="n">
         <v>3</v>
@@ -1939,11 +1938,11 @@
     </row>
     <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
@@ -1964,14 +1963,14 @@
     </row>
     <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D52" s="4"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="3"/>
       <c r="F52" s="4" t="n">
         <v>4</v>
       </c>
@@ -1987,14 +1986,14 @@
     </row>
     <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53" s="5"/>
+      <c r="E53" s="3"/>
       <c r="F53" s="4" t="n">
         <v>3</v>
       </c>
@@ -2010,15 +2009,15 @@
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D54" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="D54" s="3"/>
       <c r="E54" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F54" s="4" t="n">
         <v>3</v>
@@ -2030,20 +2029,20 @@
         <v>2</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="D55" s="3"/>
       <c r="E55" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F55" s="4" t="n">
         <v>4</v>
@@ -2055,19 +2054,19 @@
         <v>3</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D56" s="4"/>
-      <c r="E56" s="5"/>
+      <c r="E56" s="3"/>
       <c r="F56" s="4" t="n">
         <v>1</v>
       </c>
@@ -2078,20 +2077,20 @@
         <v>4</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D57" s="5"/>
+        <v>62</v>
+      </c>
+      <c r="D57" s="3"/>
       <c r="E57" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F57" s="4" t="n">
         <v>3</v>
@@ -2108,14 +2107,14 @@
     </row>
     <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D58" s="4"/>
-      <c r="E58" s="5"/>
+      <c r="E58" s="3"/>
       <c r="F58" s="4" t="n">
         <v>4</v>
       </c>
@@ -2131,14 +2130,14 @@
     </row>
     <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D59" s="4"/>
-      <c r="E59" s="5"/>
+      <c r="E59" s="3"/>
       <c r="F59" s="4" t="n">
         <v>2</v>
       </c>
@@ -2154,14 +2153,14 @@
     </row>
     <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D60" s="4"/>
-      <c r="E60" s="5"/>
+      <c r="E60" s="3"/>
       <c r="F60" s="4" t="n">
         <v>2</v>
       </c>
@@ -2177,15 +2176,15 @@
     </row>
     <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D61" s="5"/>
+        <v>99</v>
+      </c>
+      <c r="D61" s="3"/>
       <c r="E61" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F61" s="4" t="n">
         <v>5</v>
@@ -2202,13 +2201,13 @@
     </row>
     <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D62" s="5"/>
+        <v>77</v>
+      </c>
+      <c r="D62" s="3"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4" t="n">
         <v>2</v>
@@ -2220,19 +2219,19 @@
         <v>2</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D63" s="4"/>
-      <c r="E63" s="5"/>
+      <c r="E63" s="3"/>
       <c r="F63" s="4" t="n">
         <v>3</v>
       </c>
@@ -2243,19 +2242,19 @@
         <v>4</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D64" s="4"/>
-      <c r="E64" s="5"/>
+      <c r="E64" s="3"/>
       <c r="F64" s="4" t="n">
         <v>4</v>
       </c>
@@ -2266,18 +2265,18 @@
         <v>2</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D65" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="D65" s="3"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="n">
         <v>5</v>
@@ -2294,13 +2293,13 @@
     </row>
     <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D66" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="D66" s="3"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4" t="n">
         <v>4</v>
@@ -2317,11 +2316,11 @@
     </row>
     <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -2340,13 +2339,13 @@
     </row>
     <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68" s="5"/>
+        <v>87</v>
+      </c>
+      <c r="D68" s="3"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4" t="n">
         <v>1</v>
@@ -2363,13 +2362,13 @@
     </row>
     <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D69" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="D69" s="3"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4" t="n">
         <v>3</v>
@@ -2386,14 +2385,14 @@
     </row>
     <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D70" s="4"/>
-      <c r="E70" s="5"/>
+      <c r="E70" s="3"/>
       <c r="F70" s="4" t="n">
         <v>2</v>
       </c>
@@ -2404,19 +2403,19 @@
         <v>1</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D71" s="4"/>
-      <c r="E71" s="5"/>
+      <c r="E71" s="3"/>
       <c r="F71" s="4" t="n">
         <v>2</v>
       </c>
@@ -2427,19 +2426,19 @@
         <v>4</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D72" s="4"/>
-      <c r="E72" s="5"/>
+      <c r="E72" s="3"/>
       <c r="F72" s="4" t="n">
         <v>2</v>
       </c>
@@ -2450,19 +2449,19 @@
         <v>4</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D73" s="4"/>
-      <c r="E73" s="5"/>
+      <c r="E73" s="3"/>
       <c r="F73" s="4" t="n">
         <v>3</v>
       </c>
@@ -2478,13 +2477,13 @@
     </row>
     <row r="74" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D74" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="D74" s="3"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4" t="n">
         <v>2</v>
@@ -2501,13 +2500,13 @@
     </row>
     <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D75" s="5"/>
+        <v>103</v>
+      </c>
+      <c r="D75" s="3"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4" t="n">
         <v>3</v>
@@ -2524,14 +2523,14 @@
     </row>
     <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D76" s="4"/>
-      <c r="E76" s="5"/>
+      <c r="E76" s="3"/>
       <c r="F76" s="4" t="n">
         <v>4</v>
       </c>
@@ -2547,13 +2546,13 @@
     </row>
     <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D77" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="D77" s="3"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4" t="n">
         <v>1</v>
@@ -2570,13 +2569,13 @@
     </row>
     <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D78" s="5"/>
+        <v>111</v>
+      </c>
+      <c r="D78" s="3"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4" t="n">
         <v>3</v>
@@ -2588,18 +2587,18 @@
         <v>2</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D79" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="D79" s="3"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4" t="n">
         <v>2</v>
@@ -2611,19 +2610,19 @@
         <v>5</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D80" s="4"/>
-      <c r="E80" s="5"/>
+      <c r="E80" s="3"/>
       <c r="F80" s="4" t="n">
         <v>4</v>
       </c>
@@ -2634,19 +2633,19 @@
         <v>3</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D81" s="4"/>
-      <c r="E81" s="5"/>
+      <c r="E81" s="3"/>
       <c r="F81" s="4" t="n">
         <v>2</v>
       </c>
@@ -2662,11 +2661,11 @@
     </row>
     <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
@@ -2685,13 +2684,13 @@
     </row>
     <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D83" s="5"/>
+        <v>95</v>
+      </c>
+      <c r="D83" s="3"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4" t="n">
         <v>3</v>
@@ -2708,14 +2707,14 @@
     </row>
     <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D84" s="4"/>
-      <c r="E84" s="5"/>
+      <c r="E84" s="3"/>
       <c r="F84" s="4" t="n">
         <v>3</v>
       </c>
@@ -2765,93 +2764,49 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>121</v>
+      <c r="A1" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.44"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="6" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
